--- a/data/trans_orig/P14B_x_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B_x_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D36FBA38-4FB3-4BE3-B245-126E1061E829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCF66D0F-F0E6-4728-9AA7-2B6661787389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F80E6A51-D82D-4FF0-A41D-619AD5A69E9F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5CA76FA7-47C4-4E8D-AA79-4B8E3154F082}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -266,7 +266,7 @@
     <t>0,57%</t>
   </si>
   <si>
-    <t>1,79%</t>
+    <t>1,94%</t>
   </si>
   <si>
     <t>2,35%</t>
@@ -275,685 +275,685 @@
     <t>1,01%</t>
   </si>
   <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
   </si>
   <si>
     <t>95,71%</t>
   </si>
   <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
   </si>
   <si>
     <t>10,08%</t>
   </si>
   <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
   </si>
   <si>
     <t>89,92%</t>
   </si>
   <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
   </si>
   <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
   </si>
   <si>
     <t>96,08%</t>
   </si>
   <si>
-    <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
   </si>
   <si>
     <t>93,17%</t>
   </si>
   <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
     <t>94,06%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB516C1E-B3F4-4F70-A074-8731A9603CB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790D3E2F-FB37-4C65-A98E-16C006CA120B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2584,7 +2584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36289FB-682C-4958-BD8A-A4D818231B11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD84151A-235B-400E-A488-59E6AACBFB8D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3803,7 +3803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671F5714-C9D8-4EFB-8288-7010C0E2DC39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA32E884-6C76-4066-9094-DB24612E7CB1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4100,7 +4100,7 @@
         <v>92</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>93</v>
@@ -4115,7 +4115,7 @@
         <v>94</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>95</v>
@@ -4154,7 +4154,7 @@
         <v>99</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>1138</v>
@@ -4169,7 +4169,7 @@
         <v>101</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,7 +4470,7 @@
         <v>1118</v>
       </c>
       <c r="N14" s="7">
-        <v>1225056</v>
+        <v>1225057</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>135</v>
@@ -4521,7 +4521,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4550,10 +4550,10 @@
         <v>138</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -4562,13 +4562,13 @@
         <v>56497</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -4577,13 +4577,13 @@
         <v>74632</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,13 +4598,13 @@
         <v>459783</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>383</v>
@@ -4613,13 +4613,13 @@
         <v>440352</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M17" s="7">
         <v>791</v>
@@ -4628,13 +4628,13 @@
         <v>900135</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4702,13 +4702,13 @@
         <v>13791</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H19" s="7">
         <v>77</v>
@@ -4717,13 +4717,13 @@
         <v>89660</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M19" s="7">
         <v>93</v>
@@ -4732,13 +4732,13 @@
         <v>103451</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,13 +4753,13 @@
         <v>577537</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H20" s="7">
         <v>578</v>
@@ -4768,13 +4768,13 @@
         <v>688271</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M20" s="7">
         <v>1189</v>
@@ -4783,13 +4783,13 @@
         <v>1265808</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4857,13 +4857,13 @@
         <v>66891</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H22" s="7">
         <v>215</v>
@@ -4872,13 +4872,13 @@
         <v>237917</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="M22" s="7">
         <v>281</v>
@@ -4887,13 +4887,13 @@
         <v>304808</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,13 +4908,13 @@
         <v>3327459</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H23" s="7">
         <v>3123</v>
@@ -4923,13 +4923,13 @@
         <v>3306625</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M23" s="7">
         <v>6288</v>
@@ -4938,13 +4938,13 @@
         <v>6634084</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,7 +5022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A8F997-9F54-432B-9DEA-A7FEC9A5C3EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD71B916-D66A-48B0-AF2A-AC4D6C862270}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5039,7 +5039,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5146,13 +5146,13 @@
         <v>8551</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -5161,13 +5161,13 @@
         <v>14591</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -5176,13 +5176,13 @@
         <v>23142</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,13 +5197,13 @@
         <v>369128</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H5" s="7">
         <v>200</v>
@@ -5212,13 +5212,13 @@
         <v>340366</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M5" s="7">
         <v>368</v>
@@ -5227,13 +5227,13 @@
         <v>709494</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,13 +5301,13 @@
         <v>4047</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -5316,13 +5316,13 @@
         <v>23138</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -5331,13 +5331,13 @@
         <v>27185</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,13 +5352,13 @@
         <v>424349</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="H8" s="7">
         <v>442</v>
@@ -5373,7 +5373,7 @@
         <v>220</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>116</v>
+        <v>221</v>
       </c>
       <c r="M8" s="7">
         <v>739</v>
@@ -5382,13 +5382,13 @@
         <v>900426</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>85</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,13 +5456,13 @@
         <v>23892</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -5471,13 +5471,13 @@
         <v>28893</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -5486,13 +5486,13 @@
         <v>52784</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5507,13 +5507,13 @@
         <v>533360</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>85</v>
+        <v>234</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H11" s="7">
         <v>803</v>
@@ -5522,13 +5522,13 @@
         <v>581554</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
         <v>1329</v>
@@ -5537,13 +5537,13 @@
         <v>1114915</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,13 +5611,13 @@
         <v>34185</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H13" s="7">
         <v>93</v>
@@ -5626,13 +5626,13 @@
         <v>61900</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M13" s="7">
         <v>124</v>
@@ -5641,13 +5641,13 @@
         <v>96085</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5662,13 +5662,13 @@
         <v>689805</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H14" s="7">
         <v>1048</v>
@@ -5677,28 +5677,28 @@
         <v>685361</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M14" s="7">
         <v>1682</v>
       </c>
       <c r="N14" s="7">
-        <v>1375167</v>
+        <v>1375166</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5740,7 +5740,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5766,13 +5766,13 @@
         <v>34232</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H16" s="7">
         <v>116</v>
@@ -5781,13 +5781,13 @@
         <v>69897</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M16" s="7">
         <v>153</v>
@@ -5796,13 +5796,13 @@
         <v>104128</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5817,13 +5817,13 @@
         <v>565925</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H17" s="7">
         <v>886</v>
@@ -5832,13 +5832,13 @@
         <v>527166</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M17" s="7">
         <v>1512</v>
@@ -5847,13 +5847,13 @@
         <v>1093092</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,13 +5921,13 @@
         <v>27333</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>181</v>
+        <v>279</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="H19" s="7">
         <v>172</v>
@@ -5936,13 +5936,13 @@
         <v>98014</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>277</v>
+        <v>145</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M19" s="7">
         <v>212</v>
@@ -5951,13 +5951,13 @@
         <v>125347</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,16 +5969,16 @@
         <v>988</v>
       </c>
       <c r="D20" s="7">
-        <v>670421</v>
+        <v>670422</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>191</v>
+        <v>287</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="H20" s="7">
         <v>1536</v>
@@ -5987,13 +5987,13 @@
         <v>928623</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>284</v>
+        <v>152</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="M20" s="7">
         <v>2524</v>
@@ -6002,13 +6002,13 @@
         <v>1599045</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>237</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,7 +6020,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -6079,10 +6079,10 @@
         <v>105</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="H22" s="7">
         <v>452</v>
@@ -6091,28 +6091,28 @@
         <v>296432</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="M22" s="7">
         <v>589</v>
       </c>
       <c r="N22" s="7">
-        <v>428672</v>
+        <v>428671</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>295</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6130,10 +6130,10 @@
         <v>114</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>298</v>
+        <v>254</v>
       </c>
       <c r="H23" s="7">
         <v>4915</v>
@@ -6142,13 +6142,13 @@
         <v>3539149</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M23" s="7">
         <v>8154</v>
@@ -6157,13 +6157,13 @@
         <v>6792137</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>304</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,7 +6205,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P14B_x_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B_x_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCF66D0F-F0E6-4728-9AA7-2B6661787389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41FA5CEC-7974-4542-9A3C-0FB066586EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5CA76FA7-47C4-4E8D-AA79-4B8E3154F082}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BD53648F-860D-4F72-A7E0-DEEE321249F3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -260,700 +260,700 @@
     <t>99,72%</t>
   </si>
   <si>
-    <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>1,94%</t>
+    <t>2,01%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
   </si>
   <si>
     <t>99,43%</t>
   </si>
   <si>
-    <t>98,06%</t>
+    <t>97,99%</t>
   </si>
   <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
   </si>
   <si>
     <t>98,57%</t>
   </si>
   <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>0,98%</t>
+    <t>1,31%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>1,35%</t>
+    <t>1,41%</t>
   </si>
   <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>99,02%</t>
+    <t>98,69%</t>
   </si>
   <si>
     <t>98,92%</t>
   </si>
   <si>
-    <t>97,83%</t>
-  </si>
-  <si>
     <t>99,31%</t>
   </si>
   <si>
-    <t>98,65%</t>
+    <t>98,59%</t>
   </si>
   <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>2,53%</t>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
   </si>
   <si>
     <t>5,4%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
   </si>
   <si>
     <t>94,6%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790D3E2F-FB37-4C65-A98E-16C006CA120B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C28D63-15F9-4F27-84D0-A2ACFF1A5261}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2467,7 +2467,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
@@ -2497,7 +2497,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
@@ -2518,7 +2518,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -2548,7 +2548,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -2584,7 +2584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD84151A-235B-400E-A488-59E6AACBFB8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCD7341-3DCF-4558-8129-BE5740BD8BD0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3803,7 +3803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA32E884-6C76-4066-9094-DB24612E7CB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADFD1F7-1E28-40A3-BF67-2DB3131BFEF4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4100,10 +4100,10 @@
         <v>92</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -4112,13 +4112,13 @@
         <v>7990</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,10 +4133,10 @@
         <v>588572</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -4148,13 +4148,13 @@
         <v>557478</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M8" s="7">
         <v>1138</v>
@@ -4163,13 +4163,13 @@
         <v>1146050</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,13 +4237,13 @@
         <v>11143</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -4252,13 +4252,13 @@
         <v>25843</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -4267,13 +4267,13 @@
         <v>36987</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,13 +4288,13 @@
         <v>657954</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H11" s="7">
         <v>638</v>
@@ -4303,13 +4303,13 @@
         <v>635543</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M11" s="7">
         <v>1265</v>
@@ -4318,13 +4318,13 @@
         <v>1293496</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,13 +4392,13 @@
         <v>19518</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -4407,13 +4407,13 @@
         <v>50552</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -4422,13 +4422,13 @@
         <v>70069</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,13 +4443,13 @@
         <v>626530</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H14" s="7">
         <v>555</v>
@@ -4458,28 +4458,28 @@
         <v>598525</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M14" s="7">
         <v>1118</v>
       </c>
       <c r="N14" s="7">
-        <v>1225057</v>
+        <v>1225056</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,7 +4521,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4547,13 +4547,13 @@
         <v>18135</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -4562,13 +4562,13 @@
         <v>56497</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -4577,13 +4577,13 @@
         <v>74632</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,13 +4598,13 @@
         <v>459783</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>383</v>
@@ -4875,10 +4875,10 @@
         <v>175</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M22" s="7">
         <v>281</v>
@@ -4926,10 +4926,10 @@
         <v>183</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="M23" s="7">
         <v>6288</v>
@@ -5022,7 +5022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD71B916-D66A-48B0-AF2A-AC4D6C862270}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E656C0-5AD9-46FB-89E9-24FCF561CA45}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5486,13 +5486,13 @@
         <v>52784</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5507,13 +5507,13 @@
         <v>533360</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H11" s="7">
         <v>803</v>
@@ -5522,13 +5522,13 @@
         <v>581554</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M11" s="7">
         <v>1329</v>
@@ -5537,13 +5537,13 @@
         <v>1114915</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,13 +5611,13 @@
         <v>34185</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H13" s="7">
         <v>93</v>
@@ -5626,13 +5626,13 @@
         <v>61900</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M13" s="7">
         <v>124</v>
@@ -5641,13 +5641,13 @@
         <v>96085</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5662,13 +5662,13 @@
         <v>689805</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H14" s="7">
         <v>1048</v>
@@ -5677,13 +5677,13 @@
         <v>685361</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M14" s="7">
         <v>1682</v>
@@ -5692,13 +5692,13 @@
         <v>1375166</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5766,13 +5766,13 @@
         <v>34232</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H16" s="7">
         <v>116</v>
@@ -5781,13 +5781,13 @@
         <v>69897</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M16" s="7">
         <v>153</v>
@@ -5796,13 +5796,13 @@
         <v>104128</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5817,13 +5817,13 @@
         <v>565925</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H17" s="7">
         <v>886</v>
@@ -5832,13 +5832,13 @@
         <v>527166</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M17" s="7">
         <v>1512</v>
@@ -5847,13 +5847,13 @@
         <v>1093092</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,13 +5921,13 @@
         <v>27333</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H19" s="7">
         <v>172</v>
@@ -5936,13 +5936,13 @@
         <v>98014</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M19" s="7">
         <v>212</v>
@@ -5951,13 +5951,13 @@
         <v>125347</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,13 +5972,13 @@
         <v>670422</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H20" s="7">
         <v>1536</v>
@@ -5990,10 +5990,10 @@
         <v>152</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M20" s="7">
         <v>2524</v>
@@ -6002,13 +6002,13 @@
         <v>1599045</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6076,13 +6076,13 @@
         <v>132239</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H22" s="7">
         <v>452</v>
@@ -6091,13 +6091,13 @@
         <v>296432</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M22" s="7">
         <v>589</v>
@@ -6106,13 +6106,13 @@
         <v>428671</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>107</v>
+        <v>298</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6127,13 +6127,13 @@
         <v>3252989</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H23" s="7">
         <v>4915</v>
@@ -6142,13 +6142,13 @@
         <v>3539149</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M23" s="7">
         <v>8154</v>
@@ -6157,13 +6157,13 @@
         <v>6792137</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B_x_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B_x_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41FA5CEC-7974-4542-9A3C-0FB066586EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D28EE5D0-B682-418D-8D0B-F603CCCE5305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BD53648F-860D-4F72-A7E0-DEEE321249F3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FF00A19D-CC1A-455E-998F-BDE3E553DC9D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -266,649 +266,640 @@
     <t>0,57%</t>
   </si>
   <si>
-    <t>2,01%</t>
+    <t>1,79%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
   </si>
   <si>
     <t>99,43%</t>
   </si>
   <si>
-    <t>97,99%</t>
+    <t>98,21%</t>
   </si>
   <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
   </si>
   <si>
     <t>98,57%</t>
   </si>
   <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,31%</t>
+    <t>1,14%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
+    <t>2,22%</t>
+  </si>
+  <si>
     <t>0,69%</t>
   </si>
   <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
   </si>
   <si>
     <t>98,59%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
   </si>
   <si>
     <t>1,9%</t>
   </si>
   <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
   </si>
   <si>
     <t>95,48%</t>
   </si>
   <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
   </si>
   <si>
     <t>9,55%</t>
   </si>
   <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
   </si>
   <si>
     <t>90,45%</t>
   </si>
   <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
   </si>
   <si>
     <t>92,73%</t>
@@ -917,43 +908,52 @@
     <t>91,53%</t>
   </si>
   <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
   </si>
   <si>
     <t>5,94%</t>
   </si>
   <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
   <si>
     <t>92,27%</t>
   </si>
   <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
   </si>
   <si>
     <t>94,06%</t>
   </si>
   <si>
-    <t>94,6%</t>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C28D63-15F9-4F27-84D0-A2ACFF1A5261}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABB92C3-0EE3-423D-91BF-650C3E5FCD44}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2467,7 +2467,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
@@ -2497,7 +2497,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
@@ -2518,7 +2518,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -2548,7 +2548,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -2584,7 +2584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCD7341-3DCF-4558-8129-BE5740BD8BD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E514FA7C-A759-4084-8B31-C8C976A20F7A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3803,7 +3803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADFD1F7-1E28-40A3-BF67-2DB3131BFEF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA5228B-F5E1-4786-8761-1FE084F0DD39}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4100,10 +4100,10 @@
         <v>92</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -4112,13 +4112,13 @@
         <v>7990</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>90</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,10 +4133,10 @@
         <v>588572</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -4148,13 +4148,13 @@
         <v>557478</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="M8" s="7">
         <v>1138</v>
@@ -4163,13 +4163,13 @@
         <v>1146050</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,13 +4237,13 @@
         <v>11143</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -4252,13 +4252,13 @@
         <v>25843</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -4267,13 +4267,13 @@
         <v>36987</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,13 +4288,13 @@
         <v>657954</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H11" s="7">
         <v>638</v>
@@ -4303,13 +4303,13 @@
         <v>635543</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M11" s="7">
         <v>1265</v>
@@ -4318,13 +4318,13 @@
         <v>1293496</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,13 +4392,13 @@
         <v>19518</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -4407,13 +4407,13 @@
         <v>50552</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -4422,13 +4422,13 @@
         <v>70069</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,13 +4443,13 @@
         <v>626530</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H14" s="7">
         <v>555</v>
@@ -4458,13 +4458,13 @@
         <v>598525</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M14" s="7">
         <v>1118</v>
@@ -4473,13 +4473,13 @@
         <v>1225056</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4547,13 +4547,13 @@
         <v>18135</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -4562,13 +4562,13 @@
         <v>56497</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -4577,13 +4577,13 @@
         <v>74632</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,13 +4598,13 @@
         <v>459783</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H17" s="7">
         <v>383</v>
@@ -4613,13 +4613,13 @@
         <v>440352</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M17" s="7">
         <v>791</v>
@@ -4628,13 +4628,13 @@
         <v>900135</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4702,13 +4702,13 @@
         <v>13791</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H19" s="7">
         <v>77</v>
@@ -4717,13 +4717,13 @@
         <v>89660</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M19" s="7">
         <v>93</v>
@@ -4732,13 +4732,13 @@
         <v>103451</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,13 +4753,13 @@
         <v>577537</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H20" s="7">
         <v>578</v>
@@ -4768,13 +4768,13 @@
         <v>688271</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M20" s="7">
         <v>1189</v>
@@ -4783,13 +4783,13 @@
         <v>1265808</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4857,13 +4857,13 @@
         <v>66891</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H22" s="7">
         <v>215</v>
@@ -4872,13 +4872,13 @@
         <v>237917</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M22" s="7">
         <v>281</v>
@@ -4887,13 +4887,13 @@
         <v>304808</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,13 +4908,13 @@
         <v>3327459</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H23" s="7">
         <v>3123</v>
@@ -4923,13 +4923,13 @@
         <v>3306625</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="M23" s="7">
         <v>6288</v>
@@ -4938,13 +4938,13 @@
         <v>6634084</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,7 +5022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E656C0-5AD9-46FB-89E9-24FCF561CA45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C764EA6-39CF-4683-9858-9F6DA903945B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5039,7 +5039,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5146,13 +5146,13 @@
         <v>8551</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -5161,13 +5161,13 @@
         <v>14591</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -5176,13 +5176,13 @@
         <v>23142</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,13 +5197,13 @@
         <v>369128</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
         <v>200</v>
@@ -5212,13 +5212,13 @@
         <v>340366</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
         <v>368</v>
@@ -5227,13 +5227,13 @@
         <v>709494</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,13 +5301,13 @@
         <v>4047</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>208</v>
+        <v>30</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -5316,13 +5316,13 @@
         <v>23138</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -5331,13 +5331,13 @@
         <v>27185</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>215</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,13 +5352,13 @@
         <v>424349</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>218</v>
+        <v>32</v>
       </c>
       <c r="H8" s="7">
         <v>442</v>
@@ -5373,7 +5373,7 @@
         <v>220</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>221</v>
+        <v>116</v>
       </c>
       <c r="M8" s="7">
         <v>739</v>
@@ -5382,13 +5382,13 @@
         <v>900426</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,13 +5456,13 @@
         <v>23892</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -5471,13 +5471,13 @@
         <v>28893</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -5486,13 +5486,13 @@
         <v>52784</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>120</v>
+        <v>228</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5507,13 +5507,13 @@
         <v>533360</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>233</v>
+        <v>85</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H11" s="7">
         <v>803</v>
@@ -5522,13 +5522,13 @@
         <v>581554</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M11" s="7">
         <v>1329</v>
@@ -5537,13 +5537,13 @@
         <v>1114915</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>128</v>
+        <v>236</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,13 +5611,13 @@
         <v>34185</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H13" s="7">
         <v>93</v>
@@ -5626,13 +5626,13 @@
         <v>61900</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M13" s="7">
         <v>124</v>
@@ -5641,13 +5641,13 @@
         <v>96085</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5662,13 +5662,13 @@
         <v>689805</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H14" s="7">
         <v>1048</v>
@@ -5677,28 +5677,28 @@
         <v>685361</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M14" s="7">
         <v>1682</v>
       </c>
       <c r="N14" s="7">
-        <v>1375166</v>
+        <v>1375167</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5740,7 +5740,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5766,13 +5766,13 @@
         <v>34232</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H16" s="7">
         <v>116</v>
@@ -5781,13 +5781,13 @@
         <v>69897</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M16" s="7">
         <v>153</v>
@@ -5796,13 +5796,13 @@
         <v>104128</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5817,13 +5817,13 @@
         <v>565925</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H17" s="7">
         <v>886</v>
@@ -5832,13 +5832,13 @@
         <v>527166</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M17" s="7">
         <v>1512</v>
@@ -5847,13 +5847,13 @@
         <v>1093092</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,13 +5921,13 @@
         <v>27333</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>277</v>
+        <v>181</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H19" s="7">
         <v>172</v>
@@ -5936,13 +5936,13 @@
         <v>98014</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>144</v>
+        <v>277</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M19" s="7">
         <v>212</v>
@@ -5951,13 +5951,13 @@
         <v>125347</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,16 +5969,16 @@
         <v>988</v>
       </c>
       <c r="D20" s="7">
-        <v>670422</v>
+        <v>670421</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H20" s="7">
         <v>1536</v>
@@ -5987,13 +5987,13 @@
         <v>928623</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>152</v>
+        <v>284</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M20" s="7">
         <v>2524</v>
@@ -6002,13 +6002,13 @@
         <v>1599045</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>292</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,7 +6020,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -6076,13 +6076,13 @@
         <v>132239</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H22" s="7">
         <v>452</v>
@@ -6091,28 +6091,28 @@
         <v>296432</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M22" s="7">
         <v>589</v>
       </c>
       <c r="N22" s="7">
-        <v>428671</v>
+        <v>428672</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6127,13 +6127,13 @@
         <v>3252989</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="H23" s="7">
         <v>4915</v>
@@ -6142,13 +6142,13 @@
         <v>3539149</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M23" s="7">
         <v>8154</v>
@@ -6157,10 +6157,10 @@
         <v>6792137</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>304</v>
@@ -6205,7 +6205,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
